--- a/APIcontrol.xlsx
+++ b/APIcontrol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP COMPUTER\Desktop\checkingV1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>API Control</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>[partner type(excel),day(excel) ]</t>
+  </si>
+  <si>
+    <t>listItemCount</t>
   </si>
 </sst>
 </file>
@@ -219,9 +222,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -232,6 +232,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,235 +517,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:R33"/>
+  <dimension ref="E3:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37:M38"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="38.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="39.7109375" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="15.5703125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="38.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="39.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="J3" s="2" t="s">
+    <row r="3" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="J3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="6" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F6" s="3">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="6" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="G7" s="4" t="s">
+    <row r="7" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
+    <row r="8" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F12" s="3">
+    <row r="12" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="G13" s="3" t="s">
+    <row r="13" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="G13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="H14" s="3" t="s">
+    <row r="14" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="H14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F17" s="3">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G18" s="3" t="s">
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H19" s="3" t="s">
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G23" s="5" t="s">
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="3" t="s">
+    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H25" s="3" t="s">
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H26" s="3" t="s">
+    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H27" s="3" t="s">
+    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H28" s="3" t="s">
+    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H29" s="3" t="s">
+    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H30" s="3" t="s">
+    <row r="30" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H32" s="7" t="s">
+    <row r="32" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="5" t="s">
         <v>29</v>
       </c>
     </row>

--- a/APIcontrol.xlsx
+++ b/APIcontrol.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>API Control</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>listItemCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  v</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
   <dimension ref="E3:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +633,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
@@ -647,7 +650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
       <c r="G18" s="2" t="s">
         <v>2</v>
       </c>
@@ -658,7 +661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H19" s="2" t="s">
         <v>34</v>
       </c>
@@ -666,7 +669,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E23" s="2" t="s">
         <v>37</v>
       </c>
@@ -680,7 +683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
       <c r="G24" s="2" t="s">
         <v>2</v>
       </c>
@@ -691,15 +694,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="M25" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H26" s="2" t="s">
         <v>16</v>
       </c>
@@ -707,7 +713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H27" s="2" t="s">
         <v>18</v>
       </c>
@@ -715,7 +721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H28" s="2" t="s">
         <v>19</v>
       </c>
@@ -723,7 +729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H29" s="2" t="s">
         <v>20</v>
       </c>
@@ -731,7 +737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H30" s="2" t="s">
         <v>25</v>
       </c>
@@ -739,7 +745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H31" s="1" t="s">
         <v>26</v>
       </c>
@@ -747,7 +753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
       <c r="H32" s="6" t="s">
         <v>32</v>
       </c>
